--- a/NGC1560-digitized.xlsx
+++ b/NGC1560-digitized.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klh269/Documents/GitHub/Renzo-UROP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE11C8E-745F-0847-83CD-BB98122BAD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F189D68-10C0-F549-AF05-4DDC02D765AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{3283D7E7-C94C-444C-8EE2-4099B2A58B57}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16720" xr2:uid="{3283D7E7-C94C-444C-8EE2-4099B2A58B57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>NGC 1560</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>upV</t>
+  </si>
+  <si>
+    <t>Vdisk_raw</t>
   </si>
 </sst>
 </file>
@@ -451,15 +454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0463602-EECF-0B4F-8E1C-E4EF2C4DC775}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -478,19 +481,22 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0.24725274999999999</v>
       </c>
@@ -504,18 +510,22 @@
         <v>1.9170244000000001</v>
       </c>
       <c r="E3" s="2">
-        <f>(G3-F3)/2</f>
+        <f>D3/SQRT(0.5)</f>
+        <v>2.7110819058801452</v>
+      </c>
+      <c r="F3" s="2">
+        <f>(H3-G3)/2</f>
         <v>2.5321889999999998</v>
       </c>
-      <c r="F3" s="3">
-        <f>G3-B3</f>
+      <c r="G3" s="3">
+        <f>H3-B3</f>
         <v>7.4391980000000011</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>12.503576000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.49450549999999999</v>
       </c>
@@ -529,18 +539,22 @@
         <v>5.0643779999999996</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E36" si="0">(G4-F4)/2</f>
+        <f t="shared" ref="E4:E36" si="0">D4/SQRT(0.5)</f>
+        <v>7.1621120525839297</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F36" si="1">(H4-G4)/2</f>
         <v>4.4635189999999998</v>
       </c>
-      <c r="F4" s="3">
-        <f>G4-B4</f>
+      <c r="G4" s="3">
+        <f>H4-B4</f>
         <v>9.8712450000000018</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>18.798283000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0.74175820000000003</v>
       </c>
@@ -555,16 +569,20 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
+        <v>10.237368375753483</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
         <v>6.2947075000000003</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>8.2689550000000001</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>20.858370000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>0.98901099999999997</v>
       </c>
@@ -579,16 +597,20 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
+        <v>12.988913760080248</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
         <v>5.6080100000000002</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>20.858370000000001</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>32.074390000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1.2454213000000001</v>
       </c>
@@ -603,16 +625,20 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
+        <v>14.688398239614557</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
         <v>5.7510719999999989</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>23.204578000000001</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>34.706721999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1.4835164999999999</v>
       </c>
@@ -627,16 +653,20 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
+        <v>15.740459992935149</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
         <v>2.2889844999999998</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>25.608011000000001</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>30.185980000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1.7307693</v>
       </c>
@@ -651,16 +681,20 @@
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
+        <v>16.468809676042103</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
         <v>3.2045774999999992</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>28.640915</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>35.050069999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1.9780219999999999</v>
       </c>
@@ -675,16 +709,20 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
+        <v>17.278089144469419</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
         <v>2.0600854999999996</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>40.772533000000003</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>44.892704000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2.2252748000000002</v>
       </c>
@@ -699,16 +737,20 @@
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
+        <v>17.844583499576334</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
         <v>1.602288999999999</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>46.666668000000001</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>49.871245999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2.4725275</v>
       </c>
@@ -723,16 +765,20 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
+        <v>18.411077854683249</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
         <v>1.3161670000000001</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>47.181685999999999</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>49.814019999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2.7197802000000002</v>
       </c>
@@ -747,16 +793,20 @@
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
+        <v>18.734789924896887</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
         <v>1.0300425000000004</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>49.642344999999999</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>51.70243</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2.9670329999999998</v>
       </c>
@@ -771,16 +821,20 @@
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
+        <v>18.49200622579005</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
         <v>1.0300429999999992</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>52.560802000000002</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>54.620888000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>3.2142856000000002</v>
       </c>
@@ -795,16 +849,20 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
+        <v>18.49200622579005</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
         <v>1.3161659999999991</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>55.937054000000003</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>58.569386000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>3.4615385999999999</v>
       </c>
@@ -819,16 +877,20 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
+        <v>18.572933182683286</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
         <v>1.5164524999999998</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>57.653790000000001</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>60.686695</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>3.7087913000000001</v>
       </c>
@@ -843,16 +905,20 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
+        <v>18.653860139576523</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
         <v>1.60229</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>58.283259999999999</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>61.487839999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>3.9652014000000002</v>
       </c>
@@ -867,16 +933,20 @@
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
+        <v>18.411077854683249</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
         <v>1.5736760000000025</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>58.741059999999997</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>61.888412000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>4.1941389999999998</v>
       </c>
@@ -891,16 +961,20 @@
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
+        <v>18.168294155576408</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
         <v>1.6595130000000005</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>59.027183999999998</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>62.346209999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>4.4413919999999996</v>
       </c>
@@ -915,16 +989,20 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
+        <v>18.087367198683172</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
         <v>1.9170264999999986</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>60.228897000000003</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>64.062950000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>4.6978020000000003</v>
       </c>
@@ -939,16 +1017,20 @@
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
+        <v>17.601799800469493</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
         <v>1.6022875000000028</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>62.060085000000001</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>65.264660000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>4.945055</v>
       </c>
@@ -963,16 +1045,20 @@
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
+        <v>17.601799800469493</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
         <v>1.5736760000000025</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>60.457797999999997</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>63.605150000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>5.1923075000000001</v>
       </c>
@@ -987,16 +1073,20 @@
       </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
+        <v>17.359016101362656</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="1"/>
         <v>1.4020019999999995</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="2">
         <v>59.084408000000003</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>61.888412000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>5.4395604000000004</v>
       </c>
@@ -1011,16 +1101,20 @@
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
+        <v>17.520872843576257</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="1"/>
         <v>1.4878414999999983</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="2">
         <v>58.855507000000003</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>61.831189999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>5.6868134000000001</v>
       </c>
@@ -1035,16 +1129,20 @@
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
+        <v>18.330149483576449</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="1"/>
         <v>1.3161640000000006</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="2">
         <v>62.575108</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>65.207436000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>5.9249086000000002</v>
       </c>
@@ -1059,16 +1157,20 @@
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
+        <v>17.197160773362619</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="1"/>
         <v>1.316164999999998</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>64.806870000000004</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>67.4392</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>6.1813187999999997</v>
       </c>
@@ -1083,16 +1185,20 @@
       </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
+        <v>15.983243692041986</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="1"/>
         <v>1.2875524999999968</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <v>66.523605000000003</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>69.098709999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>6.4285709999999998</v>
       </c>
@@ -1107,16 +1213,20 @@
       </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
+        <v>15.416747922721509</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="1"/>
         <v>1.1444880000000026</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <v>69.327613999999997</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>71.616590000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>6.6758240000000004</v>
       </c>
@@ -1131,16 +1241,20 @@
       </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
+        <v>14.931181938721394</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="1"/>
         <v>1.2589400000000026</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2">
         <v>71.788269999999997</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>74.306150000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>6.9230770000000001</v>
       </c>
@@ -1155,16 +1269,20 @@
       </c>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
+        <v>14.526542911614518</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="1"/>
         <v>1.1731049999999996</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2">
         <v>73.047210000000007</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <v>75.393420000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>7.1703295999999996</v>
       </c>
@@ -1179,16 +1297,20 @@
       </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
+        <v>14.12190388450764</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="1"/>
         <v>1.316164999999998</v>
       </c>
-      <c r="F31" s="2">
+      <c r="G31" s="2">
         <v>73.84836</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>76.480689999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>7.4267396999999997</v>
       </c>
@@ -1203,16 +1325,20 @@
       </c>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
+        <v>13.879120185400801</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="1"/>
         <v>1.1731025000000059</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G32" s="2">
         <v>74.077254999999994</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <v>76.423460000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>7.655678</v>
       </c>
@@ -1227,16 +1353,20 @@
       </c>
       <c r="E33" s="2">
         <f t="shared" si="0"/>
+        <v>13.555408115187161</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="1"/>
         <v>1.2875500000000031</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G33" s="2">
         <v>75.107299999999995</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H33" s="2">
         <v>77.682400000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>7.9120879999999998</v>
       </c>
@@ -1251,16 +1381,20 @@
       </c>
       <c r="E34" s="2">
         <f t="shared" si="0"/>
+        <v>13.150770502293849</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="1"/>
         <v>1.4020050000000026</v>
       </c>
-      <c r="F34" s="2">
+      <c r="G34" s="2">
         <v>75.908439999999999</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <v>78.712450000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>8.4157504999999997</v>
       </c>
@@ -1275,16 +1409,20 @@
       </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
+        <v>12.746131475186971</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="1"/>
         <v>1.5450649999999939</v>
       </c>
-      <c r="F35" s="2">
+      <c r="G35" s="2">
         <v>75.393420000000006</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <v>78.483549999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>8.8919409999999992</v>
       </c>
@@ -1299,16 +1437,21 @@
       </c>
       <c r="E36" s="2">
         <f t="shared" si="0"/>
+        <v>12.179637120080056</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="1"/>
         <v>1.9742509999999953</v>
       </c>
-      <c r="F36" s="2">
+      <c r="G36" s="2">
         <v>75.622314000000003</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H36" s="2">
         <v>79.570815999999994</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/NGC1560-digitized.xlsx
+++ b/NGC1560-digitized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klh269/Documents/GitHub/Renzo-UROP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F189D68-10C0-F549-AF05-4DDC02D765AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D2E142-2BA3-7B4F-B125-80BF65975126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16720" xr2:uid="{3283D7E7-C94C-444C-8EE2-4099B2A58B57}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,8 +510,8 @@
         <v>1.9170244000000001</v>
       </c>
       <c r="E3" s="2">
-        <f>D3/SQRT(0.5)</f>
-        <v>2.7110819058801452</v>
+        <f>D3/SQRT(0.4)</f>
+        <v>3.0310817170588455</v>
       </c>
       <c r="F3" s="2">
         <f>(H3-G3)/2</f>
@@ -539,8 +539,8 @@
         <v>5.0643779999999996</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E36" si="0">D4/SQRT(0.5)</f>
-        <v>7.1621120525839297</v>
+        <f t="shared" ref="E4:E36" si="0">D4/SQRT(0.4)</f>
+        <v>8.0074847060241083</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4:F36" si="1">(H4-G4)/2</f>
@@ -569,7 +569,7 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>10.237368375753483</v>
+        <v>11.445725799445698</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="1"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>12.988913760080248</v>
+        <v>14.522047060710914</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>14.688398239614557</v>
+        <v>16.422128472183196</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="1"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>15.740459992935149</v>
+        <v>17.598369270659425</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
@@ -681,7 +681,7 @@
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>16.468809676042103</v>
+        <v>18.412688972068214</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
@@ -709,7 +709,7 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>17.278089144469419</v>
+        <v>19.317490924167402</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
@@ -737,7 +737,7 @@
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>17.844583499576334</v>
+        <v>19.950850867611887</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="1"/>
@@ -765,7 +765,7 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>18.411077854683249</v>
+        <v>20.584210811056373</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
@@ -793,7 +793,7 @@
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>18.734789924896887</v>
+        <v>20.94613190812381</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>18.49200622579005</v>
+        <v>20.674691480607937</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>18.49200622579005</v>
+        <v>20.674691480607937</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
@@ -877,7 +877,7 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>18.572933182683286</v>
+        <v>20.765170569020675</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
@@ -905,7 +905,7 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>18.653860139576523</v>
+        <v>20.855649657433414</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="1"/>
@@ -933,7 +933,7 @@
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>18.411077854683249</v>
+        <v>20.584210811056373</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="1"/>
@@ -961,7 +961,7 @@
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>18.168294155576408</v>
+        <v>20.312770383540496</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="1"/>
@@ -989,7 +989,7 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>18.087367198683172</v>
+        <v>20.222291295127761</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="1"/>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>17.601799800469493</v>
+        <v>19.679410440096014</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>17.601799800469493</v>
+        <v>19.679410440096014</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="1"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>17.359016101362656</v>
+        <v>19.40797001258014</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="1"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>17.520872843576257</v>
+        <v>19.588931351683275</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="1"/>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>18.330149483576449</v>
+        <v>20.493730141504802</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="1"/>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>17.197160773362619</v>
+        <v>19.227010254615834</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="1"/>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>15.983243692041986</v>
+        <v>17.869809698175299</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="1"/>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>15.416747922721509</v>
+        <v>17.236448173591985</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="1"/>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>14.931181938721394</v>
+        <v>16.69356889969907</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="1"/>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
-        <v>14.526542911614518</v>
+        <v>16.24116871421889</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="1"/>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
-        <v>14.12190388450764</v>
+        <v>15.788768528738713</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="1"/>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
-        <v>13.879120185400801</v>
+        <v>15.517328101222837</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="1"/>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="E33" s="2">
         <f t="shared" si="0"/>
-        <v>13.555408115187161</v>
+        <v>15.155407004155396</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="1"/>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="E34" s="2">
         <f t="shared" si="0"/>
-        <v>13.150770502293849</v>
+        <v>14.703008399814049</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="1"/>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
-        <v>12.746131475186971</v>
+        <v>14.250608214333871</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="1"/>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="E36" s="2">
         <f t="shared" si="0"/>
-        <v>12.179637120080056</v>
+        <v>13.617248270889387</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="1"/>
